--- a/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
+++ b/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
+++ b/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00786305</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Assessment of Efficiency of Nebulized Ceftazidime and Amikacin in Treatment of Ventilator Associated Pneumonia Caused by Pseudomonas Aeruginosa</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00786305</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Assessment of Efficiency of Nebulized Ceftazidime and Amikacin in Treatment of Ventilator Associated Pneumonia Caused by Pseudomonas Aeruginosa</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT02055261</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Effects of Low Frequency Deep Brain Stimulation of the Pedunculopontine Nucleus on Gait and Balance Disorders of Parkinson's Disease</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -640,36 +660,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT01457248</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Effect of Endotracheal Tube With Taper-shaped Cuff on Incidence of Postoperative Pneumonia After Aortic Surgery</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>TETRIS</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -688,36 +713,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01457248</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Effect of Endotracheal Tube With Taper-shaped Cuff on Incidence of Postoperative Pneumonia After Aortic Surgery</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>TETRIS</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -736,36 +766,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02554370</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Psychoeducational Programme for Patients With Parkinson's Disease Undergoing Subthalamic Deep Brain Stimulation</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>PSYCHE</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -784,36 +819,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT02554370</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Psychoeducational Programme for Patients With Parkinson's Disease Undergoing Subthalamic Deep Brain Stimulation</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>PSYCHE</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -832,36 +872,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT03671161</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Combination of Flash Glucose Measure System and Continuous Subcutaneous Insulin Infusion Therapy in Patients With Type 1 Diabetes and Poor Glycemic Control Related to Very Few Self-blood Glucose Measurements</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>FREESTYLE</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -880,36 +925,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT03671161</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Combination of Flash Glucose Measure System and Continuous Subcutaneous Insulin Infusion Therapy in Patients With Type 1 Diabetes and Poor Glycemic Control Related to Very Few Self-blood Glucose Measurements</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>FREESTYLE</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -928,36 +978,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT04035655</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Sub-study of the NEURODOC Project (Electrophysiological Evaluation of Consciousness in Patients With Disorders of Consciousness During Standard Care Procedures): Neurophysiological Evaluation of a Routine Care Open Label tDCS Session</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>Neurodoc</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -976,36 +1031,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT04035655</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Sub-study of the NEURODOC Project (Electrophysiological Evaluation of Consciousness in Patients With Disorders of Consciousness During Standard Care Procedures): Neurophysiological Evaluation of a Routine Care Open Label tDCS Session</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Neurodoc</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1024,28 +1084,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00139308</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Pilot Study of Internal Globus Pallidus or Median Centre of the Thalamus High Frequency Stimulation for the Treatment of Patients With Severe Tourette's Syndrome</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1064,28 +1129,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00139308</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Pilot Study of Internal Globus Pallidus or Median Centre of the Thalamus High Frequency Stimulation for the Treatment of Patients With Severe Tourette's Syndrome</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
         <v>1</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>

--- a/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
+++ b/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>orange</t>

--- a/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
+++ b/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
@@ -55,13 +55,13 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📕</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-3</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
+++ b/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
@@ -64,7 +64,7 @@
     <t>-3</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>orange</t>
@@ -73,13 +73,13 @@
     <t>rouge</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
   </si>
   <si>
     <t>NCT00786305</t>

--- a/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
+++ b/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>statut</t>
   </si>
   <si>
-    <t>statut_label</t>
-  </si>
-  <si>
     <t>statut_name</t>
   </si>
   <si>
@@ -43,43 +40,25 @@
     <t>acronym</t>
   </si>
   <si>
-    <t>results_1y</t>
-  </si>
-  <si>
-    <t>results_3y</t>
-  </si>
-  <si>
-    <t>results</t>
-  </si>
-  <si>
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⚠️</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>pas de résultat postés ni publiés</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat postés ou publiés</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4: pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
     <t>NCT00786305</t>
@@ -518,13 +497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,451 +531,283 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+      <c r="B13" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>47</v>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
+++ b/publipostage2/02mh9a093/liste_essais_cliniques_identifies_02mh9a093.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>statut</t>
   </si>
@@ -52,13 +52,13 @@
     <t>3</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
   </si>
   <si>
     <t>NCT00786305</t>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>BEHAVIORAL</t>
+  </si>
+  <si>
+    <t>DIAGNOSTIC_TEST</t>
   </si>
 </sst>
 </file>
@@ -750,7 +753,7 @@
         <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -773,7 +776,7 @@
         <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9">
